--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r108_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1790,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1825,28 +1837,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1883,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2050,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2085,28 +2097,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2143,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2426,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2461,28 +2473,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2519,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2645,10 +2657,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2692,28 +2704,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2738,28 +2750,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2992,10 +3004,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3039,28 +3051,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3085,28 +3097,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3281,10 +3293,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3328,28 +3340,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3374,28 +3386,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3541,10 +3553,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3588,28 +3600,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3634,28 +3646,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3830,10 +3842,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3877,28 +3889,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3923,28 +3935,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4119,10 +4131,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4166,28 +4178,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4212,28 +4224,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4321,10 +4333,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4368,28 +4380,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4414,28 +4426,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4523,10 +4535,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4570,28 +4582,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4616,28 +4628,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4725,10 +4737,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4772,28 +4784,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4818,28 +4830,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +4997,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5044,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5090,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5187,10 +5199,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5234,28 +5246,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5280,28 +5292,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5389,10 +5401,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5436,28 +5448,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5482,28 +5494,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5591,10 +5603,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5638,28 +5650,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5684,28 +5696,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5793,10 +5805,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5840,28 +5852,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5886,28 +5898,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5995,10 +6007,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6042,28 +6054,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6088,28 +6100,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6168,10 +6180,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6215,28 +6227,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6261,28 +6273,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6370,10 +6382,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6417,28 +6429,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6463,28 +6475,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6572,10 +6584,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6619,28 +6631,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6665,28 +6677,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6745,10 +6757,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6792,28 +6804,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6838,28 +6850,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6918,10 +6930,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6965,28 +6977,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7011,28 +7023,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7091,10 +7103,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
